--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="867">
   <si>
     <t>anchor score</t>
   </si>
@@ -247,517 +247,517 @@
     <t>volunteer</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>charged</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>charged</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>services</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
   <si>
     <t>heroes</t>
@@ -2983,7 +2983,7 @@
         <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K4">
         <v>0.8976377952755905</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K5">
         <v>0.896551724137931</v>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K6">
         <v>0.8807339449541285</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K7">
         <v>0.85</v>
@@ -3312,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K8">
         <v>0.8368794326241135</v>
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K9">
         <v>0.8141025641025641</v>
@@ -3462,7 +3462,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K11">
         <v>0.7925531914893617</v>
@@ -3512,16 +3512,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K12">
-        <v>0.7709251101321586</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L12">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="M12">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c r="N12">
         <v>0.9399999999999999</v>
@@ -3533,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3562,28 +3562,28 @@
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="K13">
-        <v>0.7555555555555555</v>
+        <v>0.7322175732217573</v>
       </c>
       <c r="L13">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3612,7 +3612,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K14">
         <v>0.7058823529411765</v>
@@ -3662,28 +3662,28 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K15">
-        <v>0.7024539877300614</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L15">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3712,28 +3712,28 @@
         <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="K16">
-        <v>0.696969696969697</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="N16">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O16">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3762,28 +3762,28 @@
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="K17">
-        <v>0.6888888888888889</v>
+        <v>0.6866197183098591</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3812,28 +3812,28 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="K18">
-        <v>0.6866197183098591</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L18">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="N18">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O18">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3862,28 +3862,28 @@
         <v>55</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>136</v>
+        <v>247</v>
       </c>
       <c r="K19">
-        <v>0.6842105263157895</v>
+        <v>0.6735294117647059</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4062,7 +4062,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K23">
         <v>0.5157894736842106</v>
@@ -4112,7 +4112,7 @@
         <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K24">
         <v>0.5</v>
@@ -4162,7 +4162,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K25">
         <v>0.5</v>
@@ -4262,7 +4262,7 @@
         <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K27">
         <v>0.492063492063492</v>
@@ -4312,7 +4312,7 @@
         <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K28">
         <v>0.4736842105263158</v>
@@ -4362,7 +4362,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K29">
         <v>0.4619164619164619</v>
@@ -4412,7 +4412,7 @@
         <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K30">
         <v>0.4619047619047619</v>
@@ -4512,7 +4512,7 @@
         <v>5</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K32">
         <v>0.4375</v>
@@ -4562,7 +4562,7 @@
         <v>10</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K33">
         <v>0.4333333333333333</v>
@@ -4612,7 +4612,7 @@
         <v>5</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K34">
         <v>0.4285714285714285</v>
@@ -4712,7 +4712,7 @@
         <v>3</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K36">
         <v>0.425531914893617</v>
@@ -4812,7 +4812,7 @@
         <v>14</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K38">
         <v>0.4173553719008264</v>
@@ -4912,7 +4912,7 @@
         <v>35</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K40">
         <v>0.4090909090909091</v>
@@ -5112,7 +5112,7 @@
         <v>14</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K44">
         <v>0.3950617283950617</v>
@@ -5412,7 +5412,7 @@
         <v>5</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K50">
         <v>0.3821656050955414</v>
@@ -5462,7 +5462,7 @@
         <v>4</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K51">
         <v>0.3818181818181818</v>
@@ -5862,7 +5862,7 @@
         <v>5</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K59">
         <v>0.3382352941176471</v>
@@ -6362,7 +6362,7 @@
         <v>29</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K69">
         <v>0.3194444444444444</v>
@@ -6462,7 +6462,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K71">
         <v>0.3150684931506849</v>
@@ -6494,25 +6494,25 @@
         <v>0.1875</v>
       </c>
       <c r="C72">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D72">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="E72">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F72">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K72">
         <v>0.3142857142857143</v>
@@ -6541,28 +6541,28 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1875</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="E73">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K73">
         <v>0.3127035830618892</v>
@@ -6594,25 +6594,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74">
         <v>5</v>
       </c>
-      <c r="D74">
-        <v>5</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>25</v>
-      </c>
       <c r="J74" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K74">
         <v>0.3125</v>
@@ -6644,25 +6644,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K75">
         <v>0.3125</v>
@@ -6694,22 +6694,22 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>280</v>
@@ -6741,13 +6741,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -6759,10 +6759,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K77">
         <v>0.3076923076923077</v>
@@ -6794,10 +6794,10 @@
         <v>0.1538461538461539</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -6809,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>281</v>
@@ -6844,22 +6844,22 @@
         <v>0.1538461538461539</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>282</v>
@@ -6891,28 +6891,28 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1538461538461539</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="E80">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K80">
         <v>0.304643261608154</v>
@@ -6941,28 +6941,28 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1470588235294118</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K81">
         <v>0.2985781990521327</v>
@@ -6994,25 +6994,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E82">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F82">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K82">
         <v>0.2945736434108527</v>
@@ -7047,22 +7047,22 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>6</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K83">
         <v>0.2916666666666667</v>
@@ -7091,28 +7091,28 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1428571428571428</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K84">
         <v>0.291044776119403</v>
@@ -7141,25 +7141,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1379310344827586</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="E85">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>283</v>
@@ -7191,13 +7191,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.131578947368421</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>284</v>
@@ -7241,13 +7241,13 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1304347826086956</v>
+        <v>0.125</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -7259,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>285</v>
@@ -7291,25 +7291,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1261261261261261</v>
+        <v>0.125</v>
       </c>
       <c r="C88">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D88">
-        <v>243</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>286</v>
@@ -7341,25 +7341,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>287</v>
@@ -7391,13 +7391,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>288</v>
@@ -7441,25 +7441,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1212121212121212</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F91">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>289</v>
@@ -7491,25 +7491,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1111111111111111</v>
+        <v>0.11</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>290</v>
@@ -7541,25 +7541,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1111111111111111</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>291</v>
@@ -7591,25 +7591,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.11</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C94">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>206</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>292</v>
@@ -7641,25 +7641,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1071428571428571</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>293</v>
@@ -7691,25 +7691,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>294</v>
@@ -7741,28 +7741,28 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97">
         <v>9</v>
       </c>
-      <c r="E97">
-        <v>0.78</v>
-      </c>
-      <c r="F97">
-        <v>0.22</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>17</v>
-      </c>
       <c r="J97" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K97">
         <v>0.2795698924731183</v>
@@ -7794,22 +7794,22 @@
         <v>0.1</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>295</v>
@@ -7841,28 +7841,28 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K99">
         <v>0.2741935483870968</v>
@@ -7891,13 +7891,13 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>296</v>
@@ -7941,28 +7941,28 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K101">
         <v>0.2727272727272727</v>
@@ -7997,16 +7997,16 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>10</v>
@@ -8097,16 +8097,16 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>10</v>
@@ -8141,28 +8141,28 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K105">
         <v>0.2666666666666667</v>
@@ -8191,7 +8191,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8209,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>300</v>
@@ -8244,22 +8244,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E107">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F107">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>301</v>
@@ -8291,25 +8291,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.08333333333333333</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>302</v>
@@ -8341,25 +8341,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D109">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>303</v>
@@ -8391,25 +8391,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.08235294117647059</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C110">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>305</v>
+        <v>4</v>
       </c>
       <c r="E110">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F110">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>304</v>
@@ -8441,28 +8441,28 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D111">
         <v>3</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K111">
         <v>0.2608695652173913</v>
@@ -8491,28 +8491,28 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K112">
         <v>0.2592592592592592</v>
@@ -8547,13 +8547,13 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F113">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
@@ -8562,7 +8562,7 @@
         <v>13</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K113">
         <v>0.2560975609756098</v>
@@ -8597,22 +8597,22 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
         <v>13</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K114">
         <v>0.2553191489361702</v>
@@ -8641,25 +8641,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E115">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F115">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>305</v>
@@ -8691,25 +8691,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>306</v>
@@ -8741,25 +8741,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D117">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E117">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>307</v>
@@ -8791,7 +8791,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8809,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>308</v>
@@ -8844,22 +8844,22 @@
         <v>0.0625</v>
       </c>
       <c r="C119">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>309</v>
@@ -8941,25 +8941,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>311</v>
@@ -8991,25 +8991,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>54</v>
@@ -9041,28 +9041,28 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.05882352941176471</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K123">
         <v>0.2461538461538462</v>
@@ -9091,25 +9091,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>312</v>
@@ -9141,25 +9141,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.05633802816901409</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E125">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="F125">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>313</v>
@@ -9194,25 +9194,25 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K126">
         <v>0.24</v>
@@ -9247,16 +9247,16 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>17</v>
@@ -9291,25 +9291,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>315</v>
@@ -9341,25 +9341,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>316</v>
@@ -9397,22 +9397,22 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
         <v>18</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K130">
         <v>0.2342342342342342</v>
@@ -9441,28 +9441,28 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E131">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K131">
         <v>0.2323943661971831</v>
@@ -9491,25 +9491,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>317</v>
@@ -9544,22 +9544,22 @@
         <v>0.05</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>318</v>
@@ -9591,25 +9591,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.05</v>
+        <v>0.04782608695652174</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>319</v>
@@ -9641,25 +9641,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E135">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F135">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>320</v>
@@ -9691,25 +9691,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.04782608695652174</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="C136">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D136">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="E136">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>321</v>
@@ -9741,25 +9741,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.04761904761904762</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E137">
-        <v>0.88</v>
+        <v>0.71</v>
       </c>
       <c r="F137">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>322</v>
@@ -9791,25 +9791,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.04697986577181208</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C138">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>323</v>
@@ -9841,25 +9841,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.04651162790697674</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E139">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="F139">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>324</v>
@@ -9897,13 +9897,13 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E140">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F140">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
@@ -9941,25 +9941,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E141">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F141">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>326</v>
@@ -9991,25 +9991,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.04545454545454546</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D142">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E142">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F142">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>327</v>
@@ -10041,25 +10041,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.04347826086956522</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D143">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="E143">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F143">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>328</v>
@@ -10091,25 +10091,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.0425531914893617</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E144">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F144">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>329</v>
@@ -10141,28 +10141,28 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.0423728813559322</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C145">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="E145">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F145">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K145">
         <v>0.2215743440233236</v>
@@ -10191,25 +10191,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E146">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F146">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>330</v>
@@ -10241,28 +10241,28 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="E147">
-        <v>0.99</v>
+        <v>0.7</v>
       </c>
       <c r="F147">
-        <v>0.01000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K147">
         <v>0.2142857142857143</v>
@@ -10291,25 +10291,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>331</v>
@@ -10341,25 +10341,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>332</v>
@@ -10391,28 +10391,28 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K150">
         <v>0.2077922077922078</v>
@@ -10441,25 +10441,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.03846153846153846</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>333</v>
@@ -10491,28 +10491,28 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.03703703703703703</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K152">
         <v>0.2024922118380062</v>
@@ -10541,28 +10541,28 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E153">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F153">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K153">
         <v>0.2014117647058823</v>
@@ -10591,25 +10591,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>334</v>
@@ -10641,25 +10641,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.03448275862068965</v>
+        <v>0.03125</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E155">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F155">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>335</v>
@@ -10691,25 +10691,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
         <v>3</v>
       </c>
-      <c r="D156">
-        <v>37</v>
-      </c>
       <c r="E156">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F156">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>336</v>
@@ -10741,25 +10741,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.03125</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E157">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F157">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>337</v>
@@ -10791,25 +10791,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>338</v>
@@ -10841,25 +10841,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.03061224489795918</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>339</v>
@@ -10891,25 +10891,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0303030303030303</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>340</v>
@@ -10941,25 +10941,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0303030303030303</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>341</v>
@@ -10991,25 +10991,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0297029702970297</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E162">
-        <v>0.7</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F162">
-        <v>0.3</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>342</v>
@@ -11041,25 +11041,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0297029702970297</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D163">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="E163">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F163">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>98</v>
+        <v>270</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>343</v>
@@ -11091,25 +11091,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E164">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F164">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>344</v>
@@ -11141,25 +11141,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.02877697841726619</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C165">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="E165">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F165">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>270</v>
+        <v>34</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>345</v>
@@ -11191,25 +11191,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>346</v>
@@ -11241,28 +11241,28 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E167">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F167">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K167">
         <v>0.2</v>
@@ -11297,16 +11297,16 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
         <v>35</v>
@@ -11341,25 +11341,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>76</v>
@@ -11391,25 +11391,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E170">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F170">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>348</v>
@@ -11441,25 +11441,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>349</v>
@@ -11491,28 +11491,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D172">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E172">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F172">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K172">
         <v>0.1915447154471545</v>
@@ -11541,28 +11541,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="C173">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F173">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K173">
         <v>0.190625</v>
@@ -11591,28 +11591,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="C174">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E174">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F174">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K174">
         <v>0.1904761904761905</v>
@@ -11641,25 +11641,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.025</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E175">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F175">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>350</v>
@@ -11691,25 +11691,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.025</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E176">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F176">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>351</v>
@@ -11747,13 +11747,13 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F177">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
@@ -11791,28 +11791,28 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.02222222222222222</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D178">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E178">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F178">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K178">
         <v>0.1851851851851852</v>
@@ -11841,13 +11841,13 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E179">
         <v>0.91</v>
@@ -11859,10 +11859,10 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K179">
         <v>0.1846153846153846</v>
@@ -11891,25 +11891,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.02197802197802198</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="C180">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="E180">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F180">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>267</v>
+        <v>91</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>353</v>
@@ -11941,28 +11941,28 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E181">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F181">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K181">
         <v>0.1818181818181818</v>
@@ -11991,25 +11991,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.02150537634408602</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C182">
         <v>2</v>
       </c>
       <c r="D182">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E182">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F182">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>354</v>
@@ -12047,13 +12047,13 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F183">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
@@ -12062,7 +12062,7 @@
         <v>46</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K183">
         <v>0.1818181818181818</v>
@@ -12094,22 +12094,22 @@
         <v>0.02127659574468085</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="E184">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="F184">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>355</v>
@@ -12141,25 +12141,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E185">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="F185">
-        <v>0.25</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>356</v>
@@ -12191,25 +12191,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E186">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F186">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>357</v>
@@ -12241,25 +12241,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.02083333333333333</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E187">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F187">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>358</v>
@@ -12291,25 +12291,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E188">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="F188">
-        <v>0.15</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>359</v>
@@ -12341,13 +12341,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0202020202020202</v>
+        <v>0.02</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="E189">
         <v>0.97</v>
@@ -12359,7 +12359,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>360</v>
@@ -12394,22 +12394,22 @@
         <v>0.02</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E190">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F190">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>361</v>
@@ -12441,25 +12441,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E191">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F191">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>362</v>
@@ -12491,25 +12491,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E192">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F192">
-        <v>0.09999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>363</v>
@@ -12541,25 +12541,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E193">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F193">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>364</v>
@@ -12591,25 +12591,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E194">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F194">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>365</v>
@@ -12641,25 +12641,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.01851851851851852</v>
+        <v>0.0176</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D195">
-        <v>13</v>
+        <v>280</v>
       </c>
       <c r="E195">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F195">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>53</v>
+        <v>614</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>366</v>
@@ -12691,25 +12691,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.01818181818181818</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E196">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F196">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>367</v>
@@ -12741,25 +12741,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0176</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C197">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>280</v>
+        <v>2</v>
       </c>
       <c r="E197">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F197">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>614</v>
+        <v>57</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>368</v>
@@ -12791,25 +12791,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E198">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F198">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>369</v>
@@ -12841,25 +12841,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.01724137931034483</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E199">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F199">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>370</v>
@@ -12891,25 +12891,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.01724137931034483</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="E200">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F200">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>371</v>
@@ -12941,25 +12941,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E201">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F201">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>372</v>
@@ -12991,25 +12991,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.01639344262295082</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D202">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="E202">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F202">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>60</v>
+        <v>512</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>373</v>
@@ -13041,28 +13041,28 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.01612903225806452</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E203">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F203">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K203">
         <v>0.169811320754717</v>
@@ -13091,28 +13091,28 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.01538461538461539</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C204">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="E204">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>512</v>
+        <v>75</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K204">
         <v>0.168141592920354</v>
@@ -13141,25 +13141,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.01515151515151515</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E205">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F205">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>374</v>
@@ -13191,25 +13191,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0131578947368421</v>
+        <v>0.01270849880857824</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>621</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
-        <v>75</v>
+        <v>2486</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>375</v>
@@ -13241,25 +13241,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.01298701298701299</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E207">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F207">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>376</v>
@@ -13291,25 +13291,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.01270849880857824</v>
+        <v>0.0125</v>
       </c>
       <c r="C208">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>621</v>
+        <v>80</v>
       </c>
       <c r="E208">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F208">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>2486</v>
+        <v>79</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>377</v>
@@ -13341,25 +13341,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.01257861635220126</v>
+        <v>0.0125</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E209">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F209">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>378</v>
@@ -13391,28 +13391,28 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0125</v>
+        <v>0.01188707280832095</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D210">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="E210">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F210">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K210">
         <v>0.1666666666666667</v>
@@ -13441,25 +13441,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0125</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E211">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F211">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>379</v>
@@ -13491,25 +13491,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.01188707280832095</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C212">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="E212">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F212">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>665</v>
+        <v>85</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>380</v>
@@ -13541,25 +13541,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.01162790697674419</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E213">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F213">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>381</v>
@@ -13591,25 +13591,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01162790697674419</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E214">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>382</v>
@@ -13641,25 +13641,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01075268817204301</v>
+        <v>0.01049562682215744</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>446</v>
       </c>
       <c r="E215">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F215">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>92</v>
+        <v>1697</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>383</v>
@@ -13691,25 +13691,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.01058201058201058</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>384</v>
@@ -13741,25 +13741,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01049562682215744</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C217">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>446</v>
+        <v>47</v>
       </c>
       <c r="E217">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F217">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>1697</v>
+        <v>100</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>385</v>
@@ -13791,25 +13791,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01041666666666667</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E218">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F218">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>386</v>
@@ -13841,25 +13841,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.009900990099009901</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E219">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F219">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>387</v>
@@ -13891,25 +13891,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.009523809523809525</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E220">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F220">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>388</v>
@@ -13941,25 +13941,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.009433962264150943</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E221">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F221">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>389</v>
@@ -13991,25 +13991,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.009216589861751152</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C222">
         <v>2</v>
       </c>
       <c r="D222">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E222">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F222">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>390</v>
@@ -14041,25 +14041,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.00909090909090909</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E223">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F223">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>391</v>
@@ -14091,25 +14091,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.008771929824561403</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E224">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F224">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>392</v>
@@ -14141,25 +14141,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.008620689655172414</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E225">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F225">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>393</v>
@@ -14191,25 +14191,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.008130081300813009</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E226">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F226">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>394</v>
@@ -14241,25 +14241,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.008130081300813009</v>
+        <v>0.008</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="E227">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F227">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>395</v>
@@ -14291,25 +14291,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.008064516129032258</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E228">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>396</v>
@@ -14341,25 +14341,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.008</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="E229">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F229">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>124</v>
+        <v>282</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>397</v>
@@ -14391,25 +14391,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.007936507936507936</v>
+        <v>0.006090133982947625</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>250</v>
+        <v>816</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>398</v>
@@ -14441,25 +14441,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.007042253521126761</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="E231">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>399</v>
@@ -14491,25 +14491,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.006090133982947625</v>
+        <v>0.005252100840336135</v>
       </c>
       <c r="C232">
         <v>5</v>
       </c>
       <c r="D232">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E232">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="F232">
-        <v>0.09999999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>816</v>
+        <v>947</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>400</v>
@@ -14541,25 +14541,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.006024096385542169</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>401</v>
@@ -14591,25 +14591,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.005252100840336135</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="C234">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E234">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="F234">
-        <v>0.24</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>947</v>
+        <v>213</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>402</v>
@@ -14641,28 +14641,28 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.004716981132075472</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235">
         <v>97</v>
       </c>
       <c r="E235">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F235">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>211</v>
+        <v>470</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K235">
         <v>0.1623931623931624</v>
@@ -14691,25 +14691,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.004672897196261682</v>
+        <v>0.003745318352059925</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E236">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="F236">
-        <v>0.07999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>213</v>
+        <v>532</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>403</v>
@@ -14741,28 +14741,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.00423728813559322</v>
+        <v>0.003460207612456748</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="E237">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F237">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>470</v>
+        <v>288</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K237">
         <v>0.1612903225806452</v>
@@ -14791,28 +14791,28 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.003745318352059925</v>
+        <v>0.003448275862068965</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E238">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="F238">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>532</v>
+        <v>289</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K238">
         <v>0.1607142857142857</v>
@@ -14841,25 +14841,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.003460207612456748</v>
+        <v>0.002683363148479427</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D239">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E239">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F239">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>288</v>
+        <v>1115</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>404</v>
@@ -14891,25 +14891,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.003448275862068965</v>
+        <v>0.00226904376012966</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D240">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="E240">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F240">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>289</v>
+        <v>3078</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>405</v>
@@ -14936,31 +14936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
-      <c r="A241" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B241">
-        <v>0.002683363148479427</v>
-      </c>
-      <c r="C241">
-        <v>3</v>
-      </c>
-      <c r="D241">
-        <v>46</v>
-      </c>
-      <c r="E241">
-        <v>0.93</v>
-      </c>
-      <c r="F241">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241">
-        <v>1115</v>
-      </c>
+    <row r="241" spans="10:17">
       <c r="J241" s="1" t="s">
         <v>406</v>
       </c>
@@ -14986,31 +14962,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
-      <c r="A242" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B242">
-        <v>0.00226904376012966</v>
-      </c>
-      <c r="C242">
-        <v>7</v>
-      </c>
-      <c r="D242">
-        <v>123</v>
-      </c>
-      <c r="E242">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F242">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G242" t="b">
-        <v>1</v>
-      </c>
-      <c r="H242">
-        <v>3078</v>
-      </c>
+    <row r="242" spans="10:17">
       <c r="J242" s="1" t="s">
         <v>407</v>
       </c>
@@ -15036,7 +14988,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="10:17">
       <c r="J243" s="1" t="s">
         <v>408</v>
       </c>
@@ -15062,9 +15014,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="10:17">
       <c r="J244" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K244">
         <v>0.1544117647058824</v>
@@ -15088,7 +15040,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="10:17">
       <c r="J245" s="1" t="s">
         <v>409</v>
       </c>
@@ -15114,7 +15066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="10:17">
       <c r="J246" s="1" t="s">
         <v>410</v>
       </c>
@@ -15140,7 +15092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="10:17">
       <c r="J247" s="1" t="s">
         <v>411</v>
       </c>
@@ -15166,7 +15118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="10:17">
       <c r="J248" s="1" t="s">
         <v>412</v>
       </c>
@@ -15192,7 +15144,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="10:17">
       <c r="J249" s="1" t="s">
         <v>413</v>
       </c>
@@ -15218,7 +15170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="10:17">
       <c r="J250" s="1" t="s">
         <v>414</v>
       </c>
@@ -15244,7 +15196,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="10:17">
       <c r="J251" s="1" t="s">
         <v>415</v>
       </c>
@@ -15270,7 +15222,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="10:17">
       <c r="J252" s="1" t="s">
         <v>416</v>
       </c>
@@ -15296,9 +15248,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="10:17">
       <c r="J253" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K253">
         <v>0.1471698113207547</v>
@@ -15322,9 +15274,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="10:17">
       <c r="J254" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K254">
         <v>0.1463414634146341</v>
@@ -15348,7 +15300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="10:17">
       <c r="J255" s="1" t="s">
         <v>417</v>
       </c>
@@ -15374,7 +15326,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="10:17">
       <c r="J256" s="1" t="s">
         <v>418</v>
       </c>
@@ -16078,7 +16030,7 @@
     </row>
     <row r="283" spans="10:17">
       <c r="J283" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K283">
         <v>0.1420765027322404</v>
@@ -16130,7 +16082,7 @@
     </row>
     <row r="285" spans="10:17">
       <c r="J285" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K285">
         <v>0.1363636363636364</v>
@@ -16234,7 +16186,7 @@
     </row>
     <row r="289" spans="10:17">
       <c r="J289" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K289">
         <v>0.1363636363636364</v>
@@ -16364,7 +16316,7 @@
     </row>
     <row r="294" spans="10:17">
       <c r="J294" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K294">
         <v>0.1333333333333333</v>
@@ -17820,7 +17772,7 @@
     </row>
     <row r="350" spans="10:17">
       <c r="J350" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K350">
         <v>0.1186440677966102</v>
@@ -18054,7 +18006,7 @@
     </row>
     <row r="359" spans="10:17">
       <c r="J359" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K359">
         <v>0.1153846153846154</v>
@@ -18106,7 +18058,7 @@
     </row>
     <row r="361" spans="10:17">
       <c r="J361" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K361">
         <v>0.1145833333333333</v>
@@ -18600,7 +18552,7 @@
     </row>
     <row r="380" spans="10:17">
       <c r="J380" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K380">
         <v>0.1111111111111111</v>
@@ -18730,7 +18682,7 @@
     </row>
     <row r="385" spans="10:17">
       <c r="J385" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K385">
         <v>0.1094890510948905</v>
@@ -18756,7 +18708,7 @@
     </row>
     <row r="386" spans="10:17">
       <c r="J386" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K386">
         <v>0.109375</v>
@@ -18782,7 +18734,7 @@
     </row>
     <row r="387" spans="10:17">
       <c r="J387" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K387">
         <v>0.108695652173913</v>
@@ -18912,7 +18864,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K392">
         <v>0.1063829787234043</v>
@@ -19094,7 +19046,7 @@
     </row>
     <row r="399" spans="10:17">
       <c r="J399" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K399">
         <v>0.102803738317757</v>
@@ -19146,7 +19098,7 @@
     </row>
     <row r="401" spans="10:17">
       <c r="J401" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K401">
         <v>0.1020408163265306</v>
@@ -19328,7 +19280,7 @@
     </row>
     <row r="408" spans="10:17">
       <c r="J408" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K408">
         <v>0.1</v>
@@ -19822,7 +19774,7 @@
     </row>
     <row r="427" spans="10:17">
       <c r="J427" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K427">
         <v>0.09090909090909091</v>
@@ -20368,7 +20320,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K448">
         <v>0.08860759493670886</v>
@@ -20524,7 +20476,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K454">
         <v>0.08695652173913043</v>
@@ -21070,7 +21022,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K475">
         <v>0.08</v>
@@ -21200,7 +21152,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K480">
         <v>0.07894736842105263</v>
@@ -21720,7 +21672,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K500">
         <v>0.07142857142857142</v>
@@ -22292,7 +22244,7 @@
     </row>
     <row r="522" spans="10:17">
       <c r="J522" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K522">
         <v>0.07058823529411765</v>
@@ -22396,7 +22348,7 @@
     </row>
     <row r="526" spans="10:17">
       <c r="J526" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K526">
         <v>0.06666666666666667</v>
@@ -23176,7 +23128,7 @@
     </row>
     <row r="556" spans="10:17">
       <c r="J556" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K556">
         <v>0.06122448979591837</v>
@@ -23202,7 +23154,7 @@
     </row>
     <row r="557" spans="10:17">
       <c r="J557" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K557">
         <v>0.06060606060606061</v>
@@ -23228,7 +23180,7 @@
     </row>
     <row r="558" spans="10:17">
       <c r="J558" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K558">
         <v>0.06060606060606061</v>
@@ -23514,7 +23466,7 @@
     </row>
     <row r="569" spans="10:17">
       <c r="J569" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K569">
         <v>0.05797101449275362</v>
@@ -23826,7 +23778,7 @@
     </row>
     <row r="581" spans="10:17">
       <c r="J581" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K581">
         <v>0.05336426914153132</v>
@@ -24216,7 +24168,7 @@
     </row>
     <row r="596" spans="10:17">
       <c r="J596" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K596">
         <v>0.05</v>
@@ -24450,7 +24402,7 @@
     </row>
     <row r="605" spans="10:17">
       <c r="J605" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K605">
         <v>0.04910714285714286</v>
@@ -24502,7 +24454,7 @@
     </row>
     <row r="607" spans="10:17">
       <c r="J607" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K607">
         <v>0.04838709677419355</v>
@@ -24762,7 +24714,7 @@
     </row>
     <row r="617" spans="10:17">
       <c r="J617" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K617">
         <v>0.04545454545454546</v>
@@ -24892,7 +24844,7 @@
     </row>
     <row r="622" spans="10:17">
       <c r="J622" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K622">
         <v>0.04444444444444445</v>
@@ -25490,7 +25442,7 @@
     </row>
     <row r="645" spans="10:17">
       <c r="J645" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K645">
         <v>0.0390625</v>
@@ -25542,7 +25494,7 @@
     </row>
     <row r="647" spans="10:17">
       <c r="J647" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K647">
         <v>0.03713298791018999</v>
@@ -25620,7 +25572,7 @@
     </row>
     <row r="650" spans="10:17">
       <c r="J650" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K650">
         <v>0.03703703703703703</v>
@@ -25724,7 +25676,7 @@
     </row>
     <row r="654" spans="10:17">
       <c r="J654" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K654">
         <v>0.03678929765886288</v>
@@ -25750,7 +25702,7 @@
     </row>
     <row r="655" spans="10:17">
       <c r="J655" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K655">
         <v>0.03631809643080777</v>
@@ -25906,7 +25858,7 @@
     </row>
     <row r="661" spans="10:17">
       <c r="J661" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K661">
         <v>0.03448275862068965</v>
@@ -26998,7 +26950,7 @@
     </row>
     <row r="703" spans="10:17">
       <c r="J703" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K703">
         <v>0.025</v>
@@ -27206,7 +27158,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K711">
         <v>0.02362204724409449</v>
@@ -27414,7 +27366,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K719">
         <v>0.02127659574468085</v>
@@ -27440,7 +27392,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K720">
         <v>0.02025782688766114</v>
@@ -27544,7 +27496,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K724">
         <v>0.01818181818181818</v>
@@ -27622,7 +27574,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K727">
         <v>0.01724137931034483</v>
@@ -27726,7 +27678,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K731">
         <v>0.0166147455867082</v>
@@ -28064,7 +28016,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K744">
         <v>0.01027397260273973</v>
@@ -28116,7 +28068,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K746">
         <v>0.009523809523809525</v>
